--- a/spliced/walkingToRunning/2023-03-30_14-20-48/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-20-48/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.07826220989227289</v>
+        <v>-3.284394264221191</v>
       </c>
       <c r="D2" t="n">
-        <v>-11.67457485198975</v>
+        <v>-6.207508087158203</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.24078559875488</v>
+        <v>-9.360366821289062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7842272789204008</v>
+        <v>-0.09578663945773691</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.80815777686483</v>
+        <v>0.5251570686625937</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.086249991891469</v>
+        <v>-0.1342098090959656</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.284394264221191</v>
+        <v>-2.543862819671631</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.207508087158203</v>
+        <v>-2.628618955612183</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.360366821289062</v>
+        <v>-11.02495956420898</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09578663945773691</v>
+        <v>-1.14914536605709</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5251570686625937</v>
+        <v>1.190383828204603</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1342098090959656</v>
+        <v>1.292009428791357</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.543862819671631</v>
+        <v>9.523374557495115</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.628618955612183</v>
+        <v>-6.183863162994385</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.02495956420898</v>
+        <v>-2.546638011932373</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.14914536605709</v>
+        <v>-0.09556020285196953</v>
       </c>
       <c r="G4" t="n">
-        <v>1.190383828204603</v>
+        <v>2.255030672907248</v>
       </c>
       <c r="H4" t="n">
-        <v>1.292009428791357</v>
+        <v>2.840824183058616</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.523374557495115</v>
+        <v>10.87078380584717</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.183863162994385</v>
+        <v>-0.2485504150390625</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.546638011932373</v>
+        <v>-1.897834300994873</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09556020285196953</v>
+        <v>-1.178172554082913</v>
       </c>
       <c r="G5" t="n">
-        <v>2.255030672907248</v>
+        <v>0.5742749858305702</v>
       </c>
       <c r="H5" t="n">
-        <v>2.840824183058616</v>
+        <v>1.787655900641919</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10.87078380584717</v>
+        <v>-25.65192222595215</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2485504150390625</v>
+        <v>-16.10989189147949</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.897834300994873</v>
+        <v>-27.1768741607666</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.178172554082913</v>
+        <v>-0.017849953278261</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5742749858305702</v>
+        <v>0.6819284758058108</v>
       </c>
       <c r="H6" t="n">
-        <v>1.787655900641919</v>
+        <v>2.102289744045419</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-25.65192222595215</v>
+        <v>-17.75581932067871</v>
       </c>
       <c r="D7" t="n">
-        <v>-16.10989189147949</v>
+        <v>-3.263657808303833</v>
       </c>
       <c r="E7" t="n">
-        <v>-27.1768741607666</v>
+        <v>-17.43449020385742</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.017849953278261</v>
+        <v>-0.2933185870808658</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6819284758058108</v>
+        <v>0.3665561543570639</v>
       </c>
       <c r="H7" t="n">
-        <v>2.102289744045419</v>
+        <v>1.667365985216152</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-17.75581932067871</v>
+        <v>21.72449111938477</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.263657808303833</v>
+        <v>-16.76241874694824</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.43449020385742</v>
+        <v>-7.28642463684082</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2933185870808658</v>
+        <v>-0.2884348296888843</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3665561543570639</v>
+        <v>2.223420211586359</v>
       </c>
       <c r="H8" t="n">
-        <v>1.667365985216152</v>
+        <v>1.218851031312623</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.72449111938477</v>
+        <v>3.684173583984375</v>
       </c>
       <c r="D9" t="n">
-        <v>-16.76241874694824</v>
+        <v>-16.01864433288574</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.28642463684082</v>
+        <v>-9.982423782348633</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2884348296888843</v>
+        <v>0.8913533052672417</v>
       </c>
       <c r="G9" t="n">
-        <v>2.223420211586359</v>
+        <v>-1.240040208982344</v>
       </c>
       <c r="H9" t="n">
-        <v>1.218851031312623</v>
+        <v>-4.165942465049586</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.684173583984375</v>
+        <v>-0.0730928182601928</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.01864433288574</v>
+        <v>6.555614948272705</v>
       </c>
       <c r="E10" t="n">
-        <v>-9.982423782348633</v>
+        <v>-3.539213180541992</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8913533052672417</v>
+        <v>0.04892210568783151</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.240040208982344</v>
+        <v>-2.769314762474837</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.165942465049586</v>
+        <v>-5.229776274178921</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.0730928182601928</v>
+        <v>1.041769504547119</v>
       </c>
       <c r="D11" t="n">
-        <v>6.555614948272705</v>
+        <v>-30.36503982543945</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.539213180541992</v>
+        <v>31.26595878601075</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04892210568783151</v>
+        <v>1.79423694823672</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.769314762474837</v>
+        <v>0.2591471291970247</v>
       </c>
       <c r="H11" t="n">
-        <v>-5.229776274178921</v>
+        <v>-2.070258497615964</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.041769504547119</v>
+        <v>38.83012771606445</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.36503982543945</v>
+        <v>12.28195858001709</v>
       </c>
       <c r="E12" t="n">
-        <v>31.26595878601075</v>
+        <v>-19.02286911010743</v>
       </c>
       <c r="F12" t="n">
-        <v>1.79423694823672</v>
+        <v>0.327913294667793</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2591471291970247</v>
+        <v>3.156352582185162</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.070258497615964</v>
+        <v>1.962593454381687</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>38.83012771606445</v>
+        <v>-7.558793067932129</v>
       </c>
       <c r="D13" t="n">
-        <v>12.28195858001709</v>
+        <v>-12.19493198394775</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.02286911010743</v>
+        <v>-16.61202049255371</v>
       </c>
       <c r="F13" t="n">
-        <v>0.327913294667793</v>
+        <v>-5.980557255122894</v>
       </c>
       <c r="G13" t="n">
-        <v>3.156352582185162</v>
+        <v>6.358928622830835</v>
       </c>
       <c r="H13" t="n">
-        <v>1.962593454381687</v>
+        <v>1.785391607146397</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-7.558793067932129</v>
+        <v>0.2677345275878906</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.19493198394775</v>
+        <v>-73.31625366210938</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.61202049255371</v>
+        <v>24.66749572753906</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.980557255122894</v>
+        <v>-5.223221169577771</v>
       </c>
       <c r="G14" t="n">
-        <v>6.358928622830835</v>
+        <v>5.128131230672261</v>
       </c>
       <c r="H14" t="n">
-        <v>1.785391607146397</v>
+        <v>-2.261452886793327</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2677345275878906</v>
+        <v>1.331151604652405</v>
       </c>
       <c r="D15" t="n">
-        <v>-73.31625366210938</v>
+        <v>2.387452363967896</v>
       </c>
       <c r="E15" t="n">
-        <v>24.66749572753906</v>
+        <v>-8.010488510131836</v>
       </c>
       <c r="F15" t="n">
-        <v>-5.223221169577771</v>
+        <v>2.6634052724078</v>
       </c>
       <c r="G15" t="n">
-        <v>5.128131230672261</v>
+        <v>-1.262619167134376</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.261452886793327</v>
+        <v>-3.230092231778134</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.331151604652405</v>
+        <v>16.03682136535645</v>
       </c>
       <c r="D16" t="n">
-        <v>2.387452363967896</v>
+        <v>-33.019287109375</v>
       </c>
       <c r="E16" t="n">
-        <v>-8.010488510131836</v>
+        <v>43.97341537475586</v>
       </c>
       <c r="F16" t="n">
-        <v>2.6634052724078</v>
+        <v>4.784483177074534</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.262619167134376</v>
+        <v>-2.167020964737715</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.230092231778134</v>
+        <v>-4.068033393454396</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.03682136535645</v>
+        <v>28.34896659851075</v>
       </c>
       <c r="D17" t="n">
-        <v>-33.019287109375</v>
+        <v>6.394547939300537</v>
       </c>
       <c r="E17" t="n">
-        <v>43.97341537475586</v>
+        <v>-27.16730880737305</v>
       </c>
       <c r="F17" t="n">
-        <v>4.784483177074534</v>
+        <v>-0.6180673411502886</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.167020964737715</v>
+        <v>-0.3114872364606223</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.068033393454396</v>
+        <v>-3.968297384787306</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>28.34896659851075</v>
+        <v>2.31614351272583</v>
       </c>
       <c r="D18" t="n">
-        <v>6.394547939300537</v>
+        <v>-4.862353324890137</v>
       </c>
       <c r="E18" t="n">
-        <v>-27.16730880737305</v>
+        <v>-18.97574234008789</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6180673411502886</v>
+        <v>-6.191343093263846</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.3114872364606223</v>
+        <v>-1.469820827677687</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.968297384787306</v>
+        <v>4.923526774281952</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.31614351272583</v>
+        <v>-14.28880977630615</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.862353324890137</v>
+        <v>-23.93070220947266</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.97574234008789</v>
+        <v>2.869308471679688</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.191343093263846</v>
+        <v>-6.191955239300739</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.469820827677687</v>
+        <v>0.06456651607004327</v>
       </c>
       <c r="H19" t="n">
-        <v>4.923526774281952</v>
+        <v>5.562430750344849</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-14.28880977630615</v>
+        <v>6.518649578094482</v>
       </c>
       <c r="D20" t="n">
-        <v>-23.93070220947266</v>
+        <v>-0.0271482467651367</v>
       </c>
       <c r="E20" t="n">
-        <v>2.869308471679688</v>
+        <v>0.3105573654174804</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.191955239300739</v>
+        <v>7.060775899656733</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06456651607004327</v>
+        <v>-5.641036204093896</v>
       </c>
       <c r="H20" t="n">
-        <v>5.562430750344849</v>
+        <v>-6.224707568901178</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6.518649578094482</v>
+        <v>9.343793869018556</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0271482467651367</v>
+        <v>9.33461856842041</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3105573654174804</v>
+        <v>8.671773910522461</v>
       </c>
       <c r="F21" t="n">
-        <v>7.060775899656733</v>
+        <v>2.895918472953405</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.641036204093896</v>
+        <v>-3.924228730409128</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.224707568901178</v>
+        <v>1.001562802687943</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>16.0465145111084</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-45.62339782714844</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13.98112106323242</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.419859485349798</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.571867339277037</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7840970496912497</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>18.59218597412109</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.586655139923096</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-14.55167388916016</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-3.988556474879168</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.858240864703046</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.390691111053246</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-13.51971435546875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-18.57223892211914</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-24.33260536193848</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.792354390241082</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.638935013093731</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.279087337894736</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-12.54771614074707</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-18.61154365539551</v>
+      </c>
+      <c r="E25" t="n">
+        <v>28.26399230957031</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-4.14442459281516</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9.648339557186993</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.673063791604435</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.716351509094239</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.821096897125244</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-9.188434600830078</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.790030563511108</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.842405033572287</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-8.527358793406183</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>41.91740417480469</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-71.66004180908203</v>
+      </c>
+      <c r="E27" t="n">
+        <v>11.51219272613525</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6.688283160112809</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-5.523453207983309</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.2542450458244243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>22.04729652404785</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.830233097076416</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-27.47162818908692</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.419822825325905</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-5.20332591199646</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-2.518984390917574</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-15.56076526641846</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-8.609291076660156</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-21.82845687866211</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0826715539042695</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.4171818759705612</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.113873891784312</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-10.87422180175781</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-26.33984756469727</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.715606689453123</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-12.35876123801507</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-14.20579128680002</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.713338022646673</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4.591959953308105</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.822259902954102</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-12.29100227355957</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.30543631401633</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-16.49609409092704</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.442643778335675</v>
       </c>
     </row>
   </sheetData>
